--- a/Test Open Xml/testdata/testsetcellvalue.xlsx
+++ b/Test Open Xml/testdata/testsetcellvalue.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R09b1340db6f644fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R7180f429c2b44315"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,7 +10,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>86</x:t>
+    <x:t>CF7B93BC-17B9-4FD3-A852-B51248A544E4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D0BA587E-7392-4C83-8F76-1820C5A3A67E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B018AA28-29FB-4522-9C9B-6582DF5FEDAD</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -18,9 +24,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
+    <x:row r="7">
+      <x:c r="H7" t="n">
+        <x:v>94.39712913</x:v>
+      </x:c>
+      <x:c r="B7" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
     <x:row r="2">
-      <x:c r="D2" t="s">
+      <x:c r="C2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J2" t="s">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="M2" t="e">
+        <x:v>#DIV/0!</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="J3" t="n">
+        <x:v>45937.59755425506580</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="Y28" t="n">
+        <x:v>42.80979986</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetcellvalue.xlsx
+++ b/Test Open Xml/testdata/testsetcellvalue.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R7180f429c2b44315"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R504f10cf52334913"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,52 +10,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>CF7B93BC-17B9-4FD3-A852-B51248A544E4</x:t>
+    <x:t>9AB0BA6B-BA87-4754-A999-4B60B045FB20</x:t>
   </x:si>
   <x:si>
-    <x:t>D0BA587E-7392-4C83-8F76-1820C5A3A67E</x:t>
+    <x:t>C0DC9318-EA34-47AC-9007-2588C61494A9</x:t>
   </x:si>
   <x:si>
-    <x:t>B018AA28-29FB-4522-9C9B-6582DF5FEDAD</x:t>
+    <x:t>65D6E735-9FEF-441B-A636-F60E4E86900F</x:t>
   </x:si>
 </x:sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="164" formatCode=""/>
+  </x:numFmts>
+  <x:cellXfs count="0">
+    <x:xf numFmtId="164" applyNumberFormat="1"/>
+  </x:cellXfs>
+</x:styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
-    <x:row r="7">
-      <x:c r="H7" t="n">
-        <x:v>94.39712913</x:v>
-      </x:c>
-      <x:c r="B7" t="b">
+    <x:row r="3">
+      <x:c r="J3" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2">
-      <x:c r="C2" t="s">
-        <x:v>2</x:v>
+    <x:row r="7">
+      <x:c r="V7" t="n">
+        <x:v>12.75434141</x:v>
       </x:c>
-      <x:c r="J2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M2" t="e">
+    </x:row>
+    <x:row r="1">
+      <x:c r="V1" t="e">
         <x:v>#DIV/0!</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
-      <x:c r="A10" t="s">
+    <x:row r="9">
+      <x:c r="A9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="O8" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3">
-      <x:c r="J3" t="n">
-        <x:v>45937.59755425506580</x:v>
+    <x:row r="10">
+      <x:c r="S10" s="164" t="n">
+        <x:v>45943.53599970721550</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
-      <x:c r="Y28" t="n">
-        <x:v>42.80979986</x:v>
+    <x:row r="72">
+      <x:c r="P72" t="n">
+        <x:v>46.95199866</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetcellvalue.xlsx
+++ b/Test Open Xml/testdata/testsetcellvalue.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R504f10cf52334913"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rd091dfcf06b84fbd"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>9AB0BA6B-BA87-4754-A999-4B60B045FB20</x:t>
+    <x:t>09BFEE1B-4B0F-4F8B-AA2F-301CFE7A683E</x:t>
   </x:si>
   <x:si>
-    <x:t>C0DC9318-EA34-47AC-9007-2588C61494A9</x:t>
+    <x:t>5AE77CB8-FD36-414A-97E9-60513F5D7751</x:t>
   </x:si>
   <x:si>
-    <x:t>65D6E735-9FEF-441B-A636-F60E4E86900F</x:t>
+    <x:t>BB2A3B2B-77B6-4872-91CA-9DE60D70FB7D</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -24,9 +24,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
-    <x:numFmt numFmtId="164" formatCode=""/>
+    <x:numFmt numFmtId="164" formatCode="dd/mm/yy hh:mm:ss.000"/>
   </x:numFmts>
-  <x:cellXfs count="0">
+  <x:cellXfs count="1">
     <x:xf numFmtId="164" applyNumberFormat="1"/>
   </x:cellXfs>
 </x:styleSheet>
@@ -35,42 +35,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
-    <x:row r="3">
-      <x:c r="J3" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7">
-      <x:c r="V7" t="n">
-        <x:v>12.75434141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1">
-      <x:c r="V1" t="e">
-        <x:v>#DIV/0!</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9">
-      <x:c r="A9" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8">
-      <x:c r="O8" t="s">
+    <x:row r="5">
+      <x:c r="B5" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
-      <x:c r="S10" s="164" t="n">
-        <x:v>45943.53599970721550</x:v>
+      <x:c r="A10" t="e">
+        <x:v>#DIV/0!</x:v>
+      </x:c>
+      <x:c r="P10" t="n">
+        <x:v>11.83749031</x:v>
       </x:c>
     </x:row>
-    <x:row r="72">
-      <x:c r="P72" t="n">
-        <x:v>46.95199866</x:v>
+    <x:row r="1">
+      <x:c r="X1" s="164" t="n">
+        <x:v>45952.43465351482150</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="M7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="H3" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetcellvalue.xlsx
+++ b/Test Open Xml/testdata/testsetcellvalue.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rd091dfcf06b84fbd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rec541a1e3a3b49d5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>09BFEE1B-4B0F-4F8B-AA2F-301CFE7A683E</x:t>
+    <x:t>3376BB6D-2A46-4A25-BB98-07229F457035</x:t>
   </x:si>
   <x:si>
-    <x:t>5AE77CB8-FD36-414A-97E9-60513F5D7751</x:t>
+    <x:t>66047488-14B0-46C3-99EF-E0FA218D3B4D</x:t>
   </x:si>
   <x:si>
-    <x:t>BB2A3B2B-77B6-4872-91CA-9DE60D70FB7D</x:t>
+    <x:t>A5CAD467-6922-4A3E-8900-58BF38F53C37</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -26,8 +26,23 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="164" formatCode="dd/mm/yy hh:mm:ss.000"/>
   </x:numFmts>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="164" applyNumberFormat="1"/>
+  <x:fonts count="1">
+    <x:font/>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border/>
+  </x:borders>
+  <x:cellXfs count="2">
+    <x:xf/>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </x:cellXfs>
 </x:styleSheet>
 </file>
@@ -35,35 +50,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
-    <x:row r="5">
-      <x:c r="B5" t="b">
+    <x:row r="70">
+      <x:c r="I70" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="VS70" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
-      <x:c r="A10" t="e">
+    <x:row r="40">
+      <x:c r="FH40" t="n">
+        <x:v>93.49307678</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="H75" t="e">
         <x:v>#DIV/0!</x:v>
       </x:c>
-      <x:c r="P10" t="n">
-        <x:v>11.83749031</x:v>
-      </x:c>
     </x:row>
-    <x:row r="1">
-      <x:c r="X1" s="164" t="n">
-        <x:v>45952.43465351482150</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7">
-      <x:c r="M7" t="s">
+    <x:row r="77">
+      <x:c r="MX77" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3">
-      <x:c r="H3" t="s">
+    <x:row r="83">
+      <x:c r="Q83" t="s">
         <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="N4" s="1" t="n">
+        <x:v>45956.62204580543760</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetcellvalue.xlsx
+++ b/Test Open Xml/testdata/testsetcellvalue.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rec541a1e3a3b49d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R762a3f5ff2cc48eb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>3376BB6D-2A46-4A25-BB98-07229F457035</x:t>
+    <x:t>AB1AB07A-849C-424A-BE17-DD9D60F71AD3</x:t>
   </x:si>
   <x:si>
-    <x:t>66047488-14B0-46C3-99EF-E0FA218D3B4D</x:t>
+    <x:t>1C2D22F9-01AC-4E06-8039-9822309D6361</x:t>
   </x:si>
   <x:si>
-    <x:t>A5CAD467-6922-4A3E-8900-58BF38F53C37</x:t>
+    <x:t>E312785D-4ACF-4FB3-8B1F-7AFB4B37D7A4</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -40,47 +40,55 @@
   <x:borders count="1">
     <x:border/>
   </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
   <x:cellXfs count="2">
     <x:xf/>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </x:cellXfs>
+  <x:cellStyles>
+    <x:cellStyle name="Standard" xfId="0"/>
+  </x:cellStyles>
 </x:styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
-    <x:row r="70">
-      <x:c r="I70" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="VS70" t="b">
+    <x:row r="100">
+      <x:c r="M100" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
-      <x:c r="FH40" t="n">
-        <x:v>93.49307678</x:v>
+    <x:row r="84">
+      <x:c r="OR84" t="n">
+        <x:v>22.87947149</x:v>
       </x:c>
     </x:row>
-    <x:row r="75">
-      <x:c r="H75" t="e">
+    <x:row r="21">
+      <x:c r="V21" t="e">
         <x:v>#DIV/0!</x:v>
       </x:c>
     </x:row>
-    <x:row r="77">
-      <x:c r="MX77" t="s">
+    <x:row r="49">
+      <x:c r="V49" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="ND89" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="83">
-      <x:c r="Q83" t="s">
+    <x:row r="16">
+      <x:c r="J16" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4">
-      <x:c r="N4" s="1" t="n">
-        <x:v>45956.62204580543760</x:v>
+    <x:row r="15">
+      <x:c r="SZ15" s="1" t="n">
+        <x:v>45957.54861513068310</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetcellvalue.xlsx
+++ b/Test Open Xml/testdata/testsetcellvalue.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R762a3f5ff2cc48eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rb28bf67c49fd4cce"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>AB1AB07A-849C-424A-BE17-DD9D60F71AD3</x:t>
+    <x:t>167F55F9-3E25-42DA-836D-4E7C1EA96C94</x:t>
   </x:si>
   <x:si>
-    <x:t>1C2D22F9-01AC-4E06-8039-9822309D6361</x:t>
+    <x:t>986823E7-ED26-412C-AE78-4B7B8D74148B</x:t>
   </x:si>
   <x:si>
-    <x:t>E312785D-4ACF-4FB3-8B1F-7AFB4B37D7A4</x:t>
+    <x:t>C2A618C3-6E67-4C0C-ABCE-55233FED9A95</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -56,39 +56,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
-    <x:row r="100">
-      <x:c r="M100" t="b">
+    <x:row r="27">
+      <x:c r="M27" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="84">
-      <x:c r="OR84" t="n">
-        <x:v>22.87947149</x:v>
+    <x:row r="66">
+      <x:c r="F66" t="n">
+        <x:v>11.12146320</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
-      <x:c r="V21" t="e">
+    <x:row r="48">
+      <x:c r="RA48" t="e">
         <x:v>#DIV/0!</x:v>
       </x:c>
     </x:row>
-    <x:row r="49">
-      <x:c r="V49" t="s">
+    <x:row r="67">
+      <x:c r="DB67" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="89">
-      <x:c r="ND89" t="s">
+    <x:row r="97">
+      <x:c r="JO97" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
-      <x:c r="J16" t="s">
+    <x:row r="95">
+      <x:c r="U95" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
-      <x:c r="SZ15" s="1" t="n">
-        <x:v>45957.54861513068310</x:v>
+    <x:row r="79">
+      <x:c r="VN79" s="1" t="n">
+        <x:v>45957.63053702192690</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetcellvalue.xlsx
+++ b/Test Open Xml/testdata/testsetcellvalue.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rb28bf67c49fd4cce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R76ac6a0ca1694185"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>167F55F9-3E25-42DA-836D-4E7C1EA96C94</x:t>
+    <x:t>581218D8-1C00-4B6A-BD84-98CBA03CF78B</x:t>
   </x:si>
   <x:si>
-    <x:t>986823E7-ED26-412C-AE78-4B7B8D74148B</x:t>
+    <x:t>91F0C4AD-1608-498B-9191-35117C5B9416</x:t>
   </x:si>
   <x:si>
-    <x:t>C2A618C3-6E67-4C0C-ABCE-55233FED9A95</x:t>
+    <x:t>F47062A5-24D4-4DF7-8495-BEAFB1936ED2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -56,39 +56,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
-    <x:row r="27">
-      <x:c r="M27" t="b">
+    <x:row r="22">
+      <x:c r="E22" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="66">
-      <x:c r="F66" t="n">
-        <x:v>11.12146320</x:v>
+    <x:row r="80">
+      <x:c r="YK80" t="n">
+        <x:v>16.17152685</x:v>
       </x:c>
     </x:row>
-    <x:row r="48">
-      <x:c r="RA48" t="e">
+    <x:row r="15">
+      <x:c r="ED15" t="e">
         <x:v>#DIV/0!</x:v>
       </x:c>
     </x:row>
-    <x:row r="67">
-      <x:c r="DB67" t="s">
+    <x:row r="29">
+      <x:c r="G29" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="97">
-      <x:c r="JO97" t="s">
+    <x:row r="64">
+      <x:c r="E64" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="95">
-      <x:c r="U95" t="s">
+    <x:row r="89">
+      <x:c r="MH89" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="79">
-      <x:c r="VN79" s="1" t="n">
-        <x:v>45957.63053702192690</x:v>
+    <x:row r="91">
+      <x:c r="E91" s="1" t="n">
+        <x:v>45959.40951369862880</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetcellvalue.xlsx
+++ b/Test Open Xml/testdata/testsetcellvalue.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R76ac6a0ca1694185"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R0ffbea46ac6149a4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>581218D8-1C00-4B6A-BD84-98CBA03CF78B</x:t>
+    <x:t>B6F835F4-3137-4612-9795-D62C80261616</x:t>
   </x:si>
   <x:si>
-    <x:t>91F0C4AD-1608-498B-9191-35117C5B9416</x:t>
+    <x:t>C93666E5-B80F-4A35-AFCF-FF28D04A7B6D</x:t>
   </x:si>
   <x:si>
-    <x:t>F47062A5-24D4-4DF7-8495-BEAFB1936ED2</x:t>
+    <x:t>D5394462-ACDC-4C7F-9EBC-0B4D3F725A29</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -56,39 +56,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
-    <x:row r="22">
-      <x:c r="E22" t="b">
+    <x:row r="39">
+      <x:c r="DQ39" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="80">
-      <x:c r="YK80" t="n">
-        <x:v>16.17152685</x:v>
+    <x:row r="38">
+      <x:c r="TT38" t="n">
+        <x:v>64.40370988</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
-      <x:c r="ED15" t="e">
+    <x:row r="81">
+      <x:c r="ER81" t="e">
         <x:v>#DIV/0!</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
-      <x:c r="G29" t="s">
+    <x:row r="83">
+      <x:c r="EV83" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="64">
-      <x:c r="E64" t="s">
+    <x:row r="2">
+      <x:c r="P2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="89">
-      <x:c r="MH89" t="s">
+    <x:row r="30">
+      <x:c r="A30" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="91">
-      <x:c r="E91" s="1" t="n">
-        <x:v>45959.40951369862880</x:v>
+    <x:row r="9">
+      <x:c r="Z9" s="1" t="n">
+        <x:v>45965.47029751873920</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
